--- a/tests/workflow-results/car-maintenance/equality_check.xlsx
+++ b/tests/workflow-results/car-maintenance/equality_check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\modelling-assistant\tests\workflow-results\car-maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C962A5-0301-4CD7-A953-74194E3B1C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03721DE8-7B8E-44F3-8749-47187723BBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -692,15 +692,15 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H2:H20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="15.6328125" style="2"/>
+    <col min="1" max="16384" width="15.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -746,7 +746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -769,7 +769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -792,7 +792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -815,7 +815,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -838,7 +838,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -861,7 +861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -884,7 +884,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -930,7 +930,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
